--- a/data/trans_orig/POLIPATOLOGIA_Lim_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_2-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>127741</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107983</v>
+        <v>108321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149017</v>
+        <v>150155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1815878820569056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1535010422376741</v>
+        <v>0.1539808856072447</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.211831508706148</v>
+        <v>0.2134500254932944</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>211</v>
@@ -764,19 +764,19 @@
         <v>229415</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202891</v>
+        <v>204247</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>255589</v>
+        <v>255029</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3291233109085615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2910705638342619</v>
+        <v>0.2930157671764945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3666726497081613</v>
+        <v>0.3658693911839172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -785,19 +785,19 @@
         <v>357157</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>323639</v>
+        <v>325930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>389126</v>
+        <v>393353</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2550174979247248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2310853480295515</v>
+        <v>0.2327208945327771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2778441532557576</v>
+        <v>0.2808621648868566</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>575728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>554452</v>
+        <v>553314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>595486</v>
+        <v>595148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8184121179430944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.788168491293852</v>
+        <v>0.7865499745067056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.846498957762326</v>
+        <v>0.8460191143927556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>439</v>
@@ -835,19 +835,19 @@
         <v>467635</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>441461</v>
+        <v>442021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>494159</v>
+        <v>492803</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6708766890914385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6333273502918387</v>
+        <v>0.6341306088160827</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.708929436165738</v>
+        <v>0.7069842328235055</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>992</v>
@@ -856,19 +856,19 @@
         <v>1043362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1011393</v>
+        <v>1007166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1076880</v>
+        <v>1074589</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7449825020752752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7221558467442424</v>
+        <v>0.7191378351131434</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7689146519704486</v>
+        <v>0.7672791054672229</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>175228</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150217</v>
+        <v>152924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200432</v>
+        <v>202866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1721385898018033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.14756872536483</v>
+        <v>0.1502282141191721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1968985357528554</v>
+        <v>0.1992897285297446</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>285</v>
@@ -981,19 +981,19 @@
         <v>310671</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>283451</v>
+        <v>281490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>341964</v>
+        <v>343059</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3009839806984137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2746131084359114</v>
+        <v>0.2727132476778721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3313015157569292</v>
+        <v>0.3323622611021772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>442</v>
@@ -1002,19 +1002,19 @@
         <v>485899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>447733</v>
+        <v>448198</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>528447</v>
+        <v>530398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2370086605148494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2183922927062245</v>
+        <v>0.2186192495513209</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2577623480885459</v>
+        <v>0.2587140439803862</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>842719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>817515</v>
+        <v>815081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>867730</v>
+        <v>865023</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8278614101981967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8031014642471446</v>
+        <v>0.8007102714702546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8524312746351698</v>
+        <v>0.8497717858808279</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>655</v>
@@ -1052,19 +1052,19 @@
         <v>721513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>690220</v>
+        <v>689125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>748733</v>
+        <v>750694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6990160193015863</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6686984842430711</v>
+        <v>0.6676377388978237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7253868915640888</v>
+        <v>0.727286752322128</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1434</v>
@@ -1073,19 +1073,19 @@
         <v>1564232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1521684</v>
+        <v>1519733</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1602398</v>
+        <v>1601933</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7629913394851506</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7422376519114539</v>
+        <v>0.7412859560196138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7816077072937754</v>
+        <v>0.7813807504486791</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>111259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90889</v>
+        <v>91624</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135144</v>
+        <v>134395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.146852853570398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1199666008385994</v>
+        <v>0.1209362981778714</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1783786220092848</v>
+        <v>0.1773900624425287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -1198,19 +1198,19 @@
         <v>198271</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174063</v>
+        <v>173356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>227304</v>
+        <v>225115</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2551179849556279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.223969697280568</v>
+        <v>0.2230590452201444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2924745468033117</v>
+        <v>0.2896586509913793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -1219,19 +1219,19 @@
         <v>309530</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>277997</v>
+        <v>275693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>347438</v>
+        <v>344441</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2016749755337116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1811291682438778</v>
+        <v>0.1796280729026222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2263740912286689</v>
+        <v>0.2244214231401602</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>646364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>622479</v>
+        <v>623228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666734</v>
+        <v>665999</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.853147146429602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8216213779907156</v>
+        <v>0.8226099375574716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8800333991614007</v>
+        <v>0.8790637018221287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>524</v>
@@ -1269,19 +1269,19 @@
         <v>578903</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>549870</v>
+        <v>552059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>603111</v>
+        <v>603818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7448820150443721</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7075254531966884</v>
+        <v>0.7103413490086206</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.776030302719432</v>
+        <v>0.7769409547798551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1116</v>
@@ -1290,19 +1290,19 @@
         <v>1225267</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1187359</v>
+        <v>1190356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1256800</v>
+        <v>1259104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7983250244662884</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7736259087713311</v>
+        <v>0.7755785768598398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8188708317561222</v>
+        <v>0.8203719270973778</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>168378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143407</v>
+        <v>146121</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190639</v>
+        <v>195962</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1776623800471844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1513149953752721</v>
+        <v>0.1541787917510538</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.201151779891171</v>
+        <v>0.2067679059856172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>285</v>
@@ -1415,19 +1415,19 @@
         <v>300252</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272456</v>
+        <v>271344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>337124</v>
+        <v>331597</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2854377463035709</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2590127259275679</v>
+        <v>0.2579558228969279</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3204904775171357</v>
+        <v>0.3152359008688405</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>440</v>
@@ -1436,19 +1436,19 @@
         <v>468630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>431051</v>
+        <v>432799</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>506408</v>
+        <v>508149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2343570825310501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2155642531919341</v>
+        <v>0.2164383339858716</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2532498273516761</v>
+        <v>0.2541200186749438</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>779361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>757100</v>
+        <v>751777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>804332</v>
+        <v>801618</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8223376199528156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7988482201088291</v>
+        <v>0.7932320940143827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8486850046247282</v>
+        <v>0.845821208248946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>718</v>
@@ -1486,19 +1486,19 @@
         <v>751649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>714777</v>
+        <v>720304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>779445</v>
+        <v>780557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7145622536964291</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6795095224828643</v>
+        <v>0.6847640991311597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.740987274072432</v>
+        <v>0.7420441771030721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1473</v>
@@ -1507,19 +1507,19 @@
         <v>1531010</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1493232</v>
+        <v>1491491</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1568589</v>
+        <v>1566841</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.76564291746895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7467501726483239</v>
+        <v>0.7458799813250562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7844357468080658</v>
+        <v>0.7835616660141285</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>582606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>539454</v>
+        <v>538682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>633614</v>
+        <v>630537</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1700157024300643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1574230628536044</v>
+        <v>0.1571977580252807</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1849007873077533</v>
+        <v>0.1840028520501623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>962</v>
@@ -1632,19 +1632,19 @@
         <v>1038610</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>982004</v>
+        <v>980623</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1102056</v>
+        <v>1097712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2918829053032623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2759750294189788</v>
+        <v>0.2755867539989996</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3097135340318662</v>
+        <v>0.3084926289440859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1492</v>
@@ -1653,19 +1653,19 @@
         <v>1621216</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1547598</v>
+        <v>1551982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1690840</v>
+        <v>1692252</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2320966924990696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.221557444366412</v>
+        <v>0.2221850620732218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.24206427845719</v>
+        <v>0.2422663433221398</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>2844173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2793165</v>
+        <v>2796242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2887325</v>
+        <v>2888097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8299842975699357</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8150992126922465</v>
+        <v>0.8159971479498377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8425769371463954</v>
+        <v>0.8428022419747191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2336</v>
@@ -1703,19 +1703,19 @@
         <v>2519699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2456253</v>
+        <v>2460597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2576305</v>
+        <v>2577686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7081170946967377</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6902864659681341</v>
+        <v>0.6915073710559142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7240249705810212</v>
+        <v>0.7244132460010004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5015</v>
@@ -1724,19 +1724,19 @@
         <v>5363872</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5294248</v>
+        <v>5292836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5437490</v>
+        <v>5433106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7679033075009304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7579357215428097</v>
+        <v>0.7577336566778601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.778442555633588</v>
+        <v>0.7778149379267781</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>101913</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85124</v>
+        <v>83634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122344</v>
+        <v>121173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1510269106176745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1261472261786782</v>
+        <v>0.1239388094325571</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1813047361298809</v>
+        <v>0.1795690780041193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>176</v>
@@ -2089,19 +2089,19 @@
         <v>190055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>167436</v>
+        <v>166914</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214792</v>
+        <v>216202</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2824672029156303</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2488497452671132</v>
+        <v>0.2480741309798714</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3192329160975105</v>
+        <v>0.3213278611939263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>277</v>
@@ -2110,19 +2110,19 @@
         <v>291968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>259257</v>
+        <v>264579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>322253</v>
+        <v>322478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2166514248245452</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1923783509990132</v>
+        <v>0.1963275368198558</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2391238091366027</v>
+        <v>0.2392910396907031</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>572887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>552456</v>
+        <v>553627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>589676</v>
+        <v>591166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8489730893823255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8186952638701191</v>
+        <v>0.8204309219958801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.873852773821322</v>
+        <v>0.8760611905674428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>490</v>
@@ -2160,19 +2160,19 @@
         <v>482784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458047</v>
+        <v>456637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>505403</v>
+        <v>505925</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7175327970843697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6807670839024895</v>
+        <v>0.6786721388060737</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7511502547328869</v>
+        <v>0.7519258690201284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1041</v>
@@ -2181,19 +2181,19 @@
         <v>1055671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1025386</v>
+        <v>1025161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1088382</v>
+        <v>1083060</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7833485751754548</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7608761908633972</v>
+        <v>0.7607089603092969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8076216490009868</v>
+        <v>0.8036724631801442</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>153744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>134503</v>
+        <v>131039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>178343</v>
+        <v>177479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1503712086498976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1315524551822662</v>
+        <v>0.1281642477581769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1744307686658738</v>
+        <v>0.1735857230433425</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>238</v>
@@ -2306,19 +2306,19 @@
         <v>271956</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>240312</v>
+        <v>242763</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301466</v>
+        <v>300736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2607657529547848</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.230424080137459</v>
+        <v>0.2327742093924594</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2890616583822928</v>
+        <v>0.2883614670890596</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>389</v>
@@ -2327,19 +2327,19 @@
         <v>425700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>388446</v>
+        <v>389601</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>463112</v>
+        <v>466844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2061158719843487</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1880780415733758</v>
+        <v>0.188637356953006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2242298816470067</v>
+        <v>0.2260368808309315</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>868687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>844088</v>
+        <v>844952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>887928</v>
+        <v>891392</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8496287913501024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8255692313341262</v>
+        <v>0.8264142769566575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8684475448177338</v>
+        <v>0.871835752241823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>739</v>
@@ -2377,19 +2377,19 @@
         <v>770957</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>741447</v>
+        <v>742177</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>802601</v>
+        <v>800150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7392342470452152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7109383416177075</v>
+        <v>0.7116385329109406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7695759198625415</v>
+        <v>0.7672257906075406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1539</v>
@@ -2398,19 +2398,19 @@
         <v>1639644</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1602232</v>
+        <v>1598500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1676898</v>
+        <v>1675743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7938841280156512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7757701183529931</v>
+        <v>0.7739631191690685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.811921958426624</v>
+        <v>0.8113626430469939</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>104667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86215</v>
+        <v>86397</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125918</v>
+        <v>123961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1378011785842004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1135079449449416</v>
+        <v>0.1137473067853111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1657789531324106</v>
+        <v>0.1632033652761817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -2523,19 +2523,19 @@
         <v>181236</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157961</v>
+        <v>155332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210060</v>
+        <v>204791</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2308711341158331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2012212953089332</v>
+        <v>0.197872101385609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2675890202150926</v>
+        <v>0.260875982784782</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -2544,19 +2544,19 @@
         <v>285904</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>255998</v>
+        <v>254809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322044</v>
+        <v>318463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1851031802623481</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.165741297195182</v>
+        <v>0.1649715887831659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2085014588524723</v>
+        <v>0.2061833737626524</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>654885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633634</v>
+        <v>635591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673337</v>
+        <v>673155</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8621988214157996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8342210468675899</v>
+        <v>0.8367966347238184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8864920550550587</v>
+        <v>0.8862526932146891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>576</v>
@@ -2594,19 +2594,19 @@
         <v>603775</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>574951</v>
+        <v>580220</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>627050</v>
+        <v>629679</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7691288658841668</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7324109797849074</v>
+        <v>0.7391240172152183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7987787046910669</v>
+        <v>0.802127898614391</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1172</v>
@@ -2615,19 +2615,19 @@
         <v>1258659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1222519</v>
+        <v>1226100</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1288565</v>
+        <v>1289754</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8148968197376519</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7914985411475278</v>
+        <v>0.7938166262373476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8342587028048177</v>
+        <v>0.835028411216834</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>146202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125097</v>
+        <v>124348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171031</v>
+        <v>169630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1559381849907868</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1334274695805225</v>
+        <v>0.1326282928286883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1824201638712518</v>
+        <v>0.1809256211997948</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -2740,19 +2740,19 @@
         <v>270215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241966</v>
+        <v>242783</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301688</v>
+        <v>302005</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2588816023126428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2318173855948227</v>
+        <v>0.2326003603769445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2890344391542317</v>
+        <v>0.2893380407314609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>380</v>
@@ -2761,19 +2761,19 @@
         <v>416418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>380588</v>
+        <v>379990</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>454433</v>
+        <v>456872</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2101690855268215</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1920855313743146</v>
+        <v>0.1917836664452299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2293556593798886</v>
+        <v>0.2305865441117097</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>791365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>766536</v>
+        <v>767937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>812470</v>
+        <v>813219</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8440618150092132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8175798361287481</v>
+        <v>0.8190743788002051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8665725304194775</v>
+        <v>0.8673717071713111</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>726</v>
@@ -2811,19 +2811,19 @@
         <v>773564</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>742091</v>
+        <v>741774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>801813</v>
+        <v>800996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7411183976873572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7109655608457683</v>
+        <v>0.7106619592685389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7681826144051774</v>
+        <v>0.7673996396230555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1511</v>
@@ -2832,19 +2832,19 @@
         <v>1564928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1526913</v>
+        <v>1524474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1600758</v>
+        <v>1601356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7898309144731785</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7706443406201113</v>
+        <v>0.7694134558882896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8079144686256854</v>
+        <v>0.8082163335547701</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>506527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>465671</v>
+        <v>466111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>551658</v>
+        <v>549539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1492264490404378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1371901229543218</v>
+        <v>0.1373197629726972</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1625223489518376</v>
+        <v>0.1618981543279248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>807</v>
@@ -2957,19 +2957,19 @@
         <v>913463</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>861862</v>
+        <v>854736</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>970974</v>
+        <v>971131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2577096007738456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2431519885744115</v>
+        <v>0.2411415550930993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2739350984640687</v>
+        <v>0.2739791848419643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1306</v>
@@ -2978,19 +2978,19 @@
         <v>1419989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1352167</v>
+        <v>1354016</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1491537</v>
+        <v>1492050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2046420785880363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1948678771085134</v>
+        <v>0.1951342623560994</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2149532441470101</v>
+        <v>0.2150270692734065</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>2887823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2842692</v>
+        <v>2844811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2928679</v>
+        <v>2928239</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8507735509595622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8374776510481624</v>
+        <v>0.8381018456720752</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8628098770456781</v>
+        <v>0.8626802370273029</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2531</v>
@@ -3028,19 +3028,19 @@
         <v>2631079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2573568</v>
+        <v>2573411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2682680</v>
+        <v>2689806</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7422903992261544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7260649015359313</v>
+        <v>0.7260208151580357</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7568480114255886</v>
+        <v>0.758858444906901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5263</v>
@@ -3049,19 +3049,19 @@
         <v>5518903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5447355</v>
+        <v>5446842</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5586725</v>
+        <v>5584876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7953579214119637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7850467558529899</v>
+        <v>0.7849729307265936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8051321228914864</v>
+        <v>0.8048657376439006</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>159524</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140539</v>
+        <v>139710</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185916</v>
+        <v>184720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.230955915373848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2034704398695985</v>
+        <v>0.2022695389696711</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2691658604118543</v>
+        <v>0.2674349653223551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>468</v>
@@ -3414,19 +3414,19 @@
         <v>240778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222381</v>
+        <v>220990</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>263980</v>
+        <v>259485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3279553496652139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3028976883435668</v>
+        <v>0.3010019384064289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3595576837398862</v>
+        <v>0.35343453758468</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>666</v>
@@ -3435,19 +3435,19 @@
         <v>400302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>369870</v>
+        <v>372655</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>429839</v>
+        <v>433115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.280935252410168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2595781824352107</v>
+        <v>0.2615324709493221</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3016645629527022</v>
+        <v>0.3039637498606321</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>531186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>504794</v>
+        <v>505990</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550171</v>
+        <v>551000</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7690440846261521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7308341395881458</v>
+        <v>0.7325650346776449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7965295601304019</v>
+        <v>0.7977304610303289</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>773</v>
@@ -3485,19 +3485,19 @@
         <v>493402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>470200</v>
+        <v>474695</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>511799</v>
+        <v>513190</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.672044650334786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6404423162601138</v>
+        <v>0.6465654624153202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6971023116564332</v>
+        <v>0.6989980615935713</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -3506,19 +3506,19 @@
         <v>1024587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>995050</v>
+        <v>991774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1055019</v>
+        <v>1052234</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.719064747589832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6983354370472981</v>
+        <v>0.696036250139368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7404218175647893</v>
+        <v>0.7384675290506779</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>162627</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>139452</v>
+        <v>138875</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>186512</v>
+        <v>188354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1550431970861712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1329482309621406</v>
+        <v>0.1323988639434527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1778140958764717</v>
+        <v>0.1795696933307484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>538</v>
@@ -3631,19 +3631,19 @@
         <v>334189</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>309935</v>
+        <v>306932</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>360950</v>
+        <v>358074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3118968961588842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2892607831904955</v>
+        <v>0.2864573456123485</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3368723683662668</v>
+        <v>0.3341886603588287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>725</v>
@@ -3652,19 +3652,19 @@
         <v>496817</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>460817</v>
+        <v>461327</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>531255</v>
+        <v>535131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2343043674836958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2173264874488004</v>
+        <v>0.2175667152685283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.250545785014941</v>
+        <v>0.2523739124621632</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>886290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>862405</v>
+        <v>860563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>909465</v>
+        <v>910042</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8449568029138289</v>
+        <v>0.8449568029138288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8221859041235282</v>
+        <v>0.8204303066692517</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8670517690378593</v>
+        <v>0.8676011360565472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>979</v>
@@ -3702,19 +3702,19 @@
         <v>737285</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>710524</v>
+        <v>713400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>761539</v>
+        <v>764542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6881031038411158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6631276316337332</v>
+        <v>0.6658113396411715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7107392168095048</v>
+        <v>0.7135426543876517</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1756</v>
@@ -3723,19 +3723,19 @@
         <v>1623574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1589136</v>
+        <v>1585260</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1659574</v>
+        <v>1659064</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7656956325163041</v>
+        <v>0.765695632516304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7494542149850589</v>
+        <v>0.7476260875378368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7826735125511995</v>
+        <v>0.7824332847314712</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>134894</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112676</v>
+        <v>114467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159136</v>
+        <v>159361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1679722754662276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1403064365237697</v>
+        <v>0.1425363169115813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1981594285248535</v>
+        <v>0.1984387184716563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>363</v>
@@ -3848,19 +3848,19 @@
         <v>257718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>234062</v>
+        <v>233051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>283350</v>
+        <v>282500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3172850873074882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2881616454816249</v>
+        <v>0.2869172076399865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3488416747764874</v>
+        <v>0.3477951062969087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>494</v>
@@ -3869,19 +3869,19 @@
         <v>392612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>358762</v>
+        <v>359857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>424695</v>
+        <v>426480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2430532200647208</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2220979043436493</v>
+        <v>0.2227757819660764</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2629147130714798</v>
+        <v>0.2640200068582896</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>668179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643937</v>
+        <v>643712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>690397</v>
+        <v>688606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8320277245337724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8018405714751463</v>
+        <v>0.8015612815283436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.85969356347623</v>
+        <v>0.8574636830884187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3919,19 +3919,19 @@
         <v>554541</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>528909</v>
+        <v>529759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>578197</v>
+        <v>579208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6827149126925118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6511583252235127</v>
+        <v>0.6522048937030916</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7118383545183748</v>
+        <v>0.7130827923600145</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1229</v>
@@ -3940,19 +3940,19 @@
         <v>1222720</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1190637</v>
+        <v>1188852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1256570</v>
+        <v>1255475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7569467799352791</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7370852869285203</v>
+        <v>0.7359799931417101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7779020956563505</v>
+        <v>0.7772242180339236</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>183947</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161441</v>
+        <v>158228</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208685</v>
+        <v>207549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1857931842577002</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.163061485635207</v>
+        <v>0.1598167322083234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2107800959885095</v>
+        <v>0.2096328279112239</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>577</v>
@@ -4065,19 +4065,19 @@
         <v>376729</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>349907</v>
+        <v>349980</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>404722</v>
+        <v>402746</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3366538811703206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3126846811172911</v>
+        <v>0.3127499839152879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3616689716026249</v>
+        <v>0.3599026352127868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>802</v>
@@ -4086,19 +4086,19 @@
         <v>560677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>526533</v>
+        <v>521893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>595098</v>
+        <v>596567</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2658363657979397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2496478938266438</v>
+        <v>0.2474475778819409</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2821568481479645</v>
+        <v>0.2828534557671722</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>806115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>781377</v>
+        <v>782513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>828621</v>
+        <v>831834</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8142068157422998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7892199040114902</v>
+        <v>0.790367172088776</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8369385143647928</v>
+        <v>0.8401832677916765</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>985</v>
@@ -4136,19 +4136,19 @@
         <v>742312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>714319</v>
+        <v>716295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>769134</v>
+        <v>769061</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6633461188296794</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6383310283973751</v>
+        <v>0.6400973647872131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6873153188827082</v>
+        <v>0.687250016084712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1766</v>
@@ -4157,19 +4157,19 @@
         <v>1548427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1514006</v>
+        <v>1512537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1582571</v>
+        <v>1587211</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7341636342020604</v>
+        <v>0.7341636342020603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7178431518520357</v>
+        <v>0.7171465442328276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7503521061733563</v>
+        <v>0.7525524221180587</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>640992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>597165</v>
+        <v>594608</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>688699</v>
+        <v>685116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1814420991046728</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1690362338059559</v>
+        <v>0.1683124216266734</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1949462068893653</v>
+        <v>0.1939322040663885</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1946</v>
@@ -4282,19 +4282,19 @@
         <v>1209415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1155411</v>
+        <v>1162276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1257371</v>
+        <v>1262631</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3236365340281573</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3091852418855027</v>
+        <v>0.3110223056112455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3364695450114094</v>
+        <v>0.3378771573235088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2687</v>
@@ -4303,19 +4303,19 @@
         <v>1850407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1778239</v>
+        <v>1779397</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1916670</v>
+        <v>1921008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2545362998335526</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2446091095216363</v>
+        <v>0.2447684413526258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2636513065882695</v>
+        <v>0.2642479649790835</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>2891770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2844063</v>
+        <v>2847646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2935597</v>
+        <v>2938154</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8185579008953274</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8050537931106349</v>
+        <v>0.8060677959336114</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8309637661940441</v>
+        <v>0.8316875783733269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3421</v>
@@ -4353,19 +4353,19 @@
         <v>2527539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2479583</v>
+        <v>2474323</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2581543</v>
+        <v>2574678</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6763634659718427</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6635304549885905</v>
+        <v>0.6621228426764912</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6908147581144972</v>
+        <v>0.6889776943887547</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6056</v>
@@ -4374,19 +4374,19 @@
         <v>5419309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5353046</v>
+        <v>5348708</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5491477</v>
+        <v>5490319</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7454637001664474</v>
+        <v>0.7454637001664473</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7363486934117306</v>
+        <v>0.7357520350209165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7553908904783637</v>
+        <v>0.7552315586473742</v>
       </c>
     </row>
     <row r="18">
